--- a/data/case1/15/Qlm2_3.xlsx
+++ b/data/case1/15/Qlm2_3.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.17115097416287739</v>
+        <v>-0.26126961572082763</v>
       </c>
       <c r="B1" s="0">
-        <v>0.17069526570794125</v>
+        <v>0.26056370210667978</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.12110437383877315</v>
+        <v>-0.16133618743582279</v>
       </c>
       <c r="B2" s="0">
-        <v>0.11970051944257598</v>
+        <v>0.15981922270004301</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.06998478658785956</v>
+        <v>-0.1101027264691119</v>
       </c>
       <c r="B3" s="0">
-        <v>0.069593786256017864</v>
+        <v>0.10965690855121402</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.061593786349813939</v>
+        <v>-0.10165690867353305</v>
       </c>
       <c r="B4" s="0">
-        <v>0.061248009299344375</v>
+        <v>0.10125971408806045</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.058248009348515595</v>
+        <v>-0.098259714158872136</v>
       </c>
       <c r="B5" s="0">
-        <v>0.057083056261568288</v>
+        <v>0.096912831887643769</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.04217672584355725</v>
+        <v>-0.032539900222428031</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.042335441198785517</v>
+        <v>0.032331517135226306</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.039311764286444895</v>
+        <v>-0.022331517305222537</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.039380418098828418</v>
+        <v>0.022294981827737814</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.049380417980469105</v>
+        <v>-0.012294982000567778</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.049555868770047251</v>
+        <v>0.012261517188800308</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.05155586873834439</v>
+        <v>-0.010261517268710385</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.051723398274615029</v>
+        <v>0.01024230345681465</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.022036243199481831</v>
+        <v>-0.0082423035377541254</v>
       </c>
       <c r="B10" s="0">
-        <v>0.022036279068476716</v>
+        <v>0.0082430038281113838</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.019036279100026476</v>
+        <v>-0.0052430039207687074</v>
       </c>
       <c r="B11" s="0">
-        <v>0.019032661770402193</v>
+        <v>0.0052432815833522994</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.016462599393858302</v>
+        <v>-0.00174328168186344</v>
       </c>
       <c r="B12" s="0">
-        <v>0.016441551135098376</v>
+        <v>0.0017427880000249196</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.012941551175391197</v>
+        <v>0.0017572119022171151</v>
       </c>
       <c r="B13" s="0">
-        <v>0.012931318302527472</v>
+        <v>-0.001758349765785816</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090795210832785855</v>
+        <v>0.009758349615727191</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090517546353696687</v>
+        <v>-0.0097717224768780753</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080517546527909545</v>
+        <v>0.010771722410695794</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080338384769120808</v>
+        <v>-0.010795901396733143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060338385047060683</v>
+        <v>0.01279590132067332</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060032145388975167</v>
+        <v>-0.012918186765905837</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040032145676107689</v>
+        <v>-0.0048008446871969923</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999517723595</v>
+        <v>0.0047988707352688564</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.043590891928953823</v>
+        <v>-0.093227514745748863</v>
       </c>
       <c r="B18" s="0">
-        <v>0.043521426075681546</v>
+        <v>0.092947981562279125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.039521426117043124</v>
+        <v>-0.053776491030842255</v>
       </c>
       <c r="B19" s="0">
-        <v>0.039016799350837239</v>
+        <v>0.052946342447129702</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080164709670693668</v>
+        <v>-0.048946342520046926</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080057352659750336</v>
+        <v>0.048710751553254994</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040057353189357769</v>
+        <v>-0.004005676159747118</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999468198766</v>
+        <v>0.0039999999225273086</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045715732906044693</v>
+        <v>-0.045716496298975784</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045501632985496698</v>
+        <v>0.04550237724581585</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.04050163304970944</v>
+        <v>-0.040502377329903361</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099428124595882</v>
+        <v>0.040099482406427356</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099428338469671</v>
+        <v>-0.020099482673783697</v>
       </c>
       <c r="B24" s="0">
-        <v>0.01999999978328848</v>
+        <v>0.019999999728833373</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.097259782152798735</v>
+        <v>-0.062372931740936721</v>
       </c>
       <c r="B25" s="0">
-        <v>0.097135931054515012</v>
+        <v>0.062316940446446978</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.094635931108692617</v>
+        <v>-0.059816940528058637</v>
       </c>
       <c r="B26" s="0">
-        <v>0.094475462771198337</v>
+        <v>0.059746803091693224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.091975462829835486</v>
+        <v>-0.057246803176656424</v>
       </c>
       <c r="B27" s="0">
-        <v>0.091018295626784873</v>
+        <v>0.056838892708016342</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.089018295700216576</v>
+        <v>-0.089011912029877571</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088363172446233484</v>
+        <v>0.088360133266092156</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.08136317258164727</v>
+        <v>-0.081360133432457182</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081173701040118118</v>
+        <v>0.081171893640935799</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021173701694323643</v>
+        <v>-0.021171894440641825</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021022702615628663</v>
+        <v>0.021021753723843961</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014022702762154893</v>
+        <v>-0.014021753903232792</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000852117687757</v>
+        <v>0.01400066151233581</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040008522936822999</v>
+        <v>-0.0040006617275185619</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999998819251203</v>
+        <v>0.003999999855475167</v>
       </c>
     </row>
   </sheetData>
